--- a/listagens.xlsx
+++ b/listagens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagomazza/Desktop/salesgraphic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658E9ADC-C1DB-B04B-88EE-1BB2DBA13823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482094A-5B9A-C24A-8068-F85DBB2B8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="3659">
   <si>
     <t>Vendedor</t>
   </si>
@@ -10851,9 +10851,6 @@
     <t xml:space="preserve">Eroglu            </t>
   </si>
   <si>
-    <t>Europatool  fresas+brocas osborn</t>
-  </si>
-  <si>
     <t>FE Powertools - fresas</t>
   </si>
   <si>
@@ -10872,9 +10869,6 @@
     <t>Haimer</t>
   </si>
   <si>
-    <t>Helios-Preisser   desc. 30%</t>
-  </si>
-  <si>
     <t>Heller</t>
   </si>
   <si>
@@ -10884,9 +10878,6 @@
     <t>ISMAEL</t>
   </si>
   <si>
-    <t>JAS (pratos magneticos)</t>
-  </si>
-  <si>
     <t>JBO</t>
   </si>
   <si>
@@ -10920,9 +10911,6 @@
     <t>Maho (trade max)</t>
   </si>
   <si>
-    <t>Manigley  - Cutting Tools</t>
-  </si>
-  <si>
     <t>Minitor</t>
   </si>
   <si>
@@ -10959,9 +10947,6 @@
     <t>SMOXH</t>
   </si>
   <si>
-    <t xml:space="preserve">SNA                    </t>
-  </si>
-  <si>
     <t>SWISSTOOLS</t>
   </si>
   <si>
@@ -10983,15 +10968,9 @@
     <t>Woolim  JENIX</t>
   </si>
   <si>
-    <t xml:space="preserve">ZEUS Hommel &amp; Keller    </t>
-  </si>
-  <si>
     <t>TUNIT</t>
   </si>
   <si>
-    <t xml:space="preserve">Shandong Fangzheng </t>
-  </si>
-  <si>
     <t>benign</t>
   </si>
   <si>
@@ -11002,6 +10981,24 @@
   </si>
   <si>
     <t>Blue Master</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>Manigley</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>Helios-Preisser  desc. 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEUS </t>
+  </si>
+  <si>
+    <t>HTK</t>
   </si>
 </sst>
 </file>
@@ -51207,8 +51204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0BA6ED-1A19-7C41-B7FA-E3504E8698D5}">
   <dimension ref="A1:B3578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51218,7 +51215,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>3657</v>
+        <v>3650</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>3597</v>
@@ -51314,7 +51311,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>3609</v>
+        <v>3651</v>
       </c>
       <c r="B13" s="13">
         <v>100</v>
@@ -51322,7 +51319,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="B14" s="13">
         <v>507</v>
@@ -51330,7 +51327,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B15" s="13">
         <v>240</v>
@@ -51338,7 +51335,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="B16" s="13">
         <v>181</v>
@@ -51346,7 +51343,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="B17" s="13">
         <v>569</v>
@@ -51354,7 +51351,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B18" s="13">
         <v>546</v>
@@ -51362,7 +51359,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="B19" s="13">
         <v>125</v>
@@ -51370,7 +51367,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>3616</v>
+        <v>3656</v>
       </c>
       <c r="B20" s="13">
         <v>306</v>
@@ -51378,7 +51375,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="B21" s="13">
         <v>252</v>
@@ -51386,7 +51383,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="B22" s="13">
         <v>964</v>
@@ -51394,7 +51391,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="B23" s="13">
         <v>581</v>
@@ -51402,7 +51399,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>3620</v>
+        <v>3655</v>
       </c>
       <c r="B24" s="13">
         <v>455</v>
@@ -51410,7 +51407,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="B25" s="13">
         <v>904</v>
@@ -51418,7 +51415,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="B26" s="13">
         <v>204</v>
@@ -51426,7 +51423,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>3623</v>
+        <v>3620</v>
       </c>
       <c r="B27" s="13">
         <v>978</v>
@@ -51434,7 +51431,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>3624</v>
+        <v>3621</v>
       </c>
       <c r="B28" s="13">
         <v>113</v>
@@ -51442,7 +51439,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="B29" s="13">
         <v>937</v>
@@ -51450,7 +51447,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="B30" s="13">
         <v>926</v>
@@ -51458,7 +51455,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="B31" s="13">
         <v>917</v>
@@ -51466,7 +51463,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="B32" s="13">
         <v>553</v>
@@ -51474,7 +51471,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="B33" s="13">
         <v>425</v>
@@ -51482,7 +51479,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="B34" s="13">
         <v>417</v>
@@ -51490,7 +51487,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>3631</v>
+        <v>3628</v>
       </c>
       <c r="B35" s="13">
         <v>318</v>
@@ -51498,7 +51495,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>3632</v>
+        <v>3654</v>
       </c>
       <c r="B36" s="13">
         <v>949</v>
@@ -51506,7 +51503,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
       <c r="B37" s="13">
         <v>441</v>
@@ -51514,7 +51511,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>3634</v>
+        <v>3630</v>
       </c>
       <c r="B38" s="13">
         <v>225</v>
@@ -51522,7 +51519,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>3635</v>
+        <v>3631</v>
       </c>
       <c r="B39" s="13">
         <v>122</v>
@@ -51530,7 +51527,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="B40" s="13">
         <v>928</v>
@@ -51538,7 +51535,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>3637</v>
+        <v>3633</v>
       </c>
       <c r="B41" s="13">
         <v>120</v>
@@ -51546,7 +51543,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>3638</v>
+        <v>3634</v>
       </c>
       <c r="B42" s="13">
         <v>150</v>
@@ -51554,7 +51551,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>3639</v>
+        <v>3635</v>
       </c>
       <c r="B43" s="13">
         <v>133</v>
@@ -51562,7 +51559,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>3640</v>
+        <v>3636</v>
       </c>
       <c r="B44" s="13">
         <v>110</v>
@@ -51570,7 +51567,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>3641</v>
+        <v>3637</v>
       </c>
       <c r="B45" s="13">
         <v>117</v>
@@ -51578,7 +51575,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>3642</v>
+        <v>3638</v>
       </c>
       <c r="B46" s="13">
         <v>118</v>
@@ -51586,7 +51583,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>3643</v>
+        <v>3639</v>
       </c>
       <c r="B47" s="13">
         <v>141</v>
@@ -51594,7 +51591,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>3644</v>
+        <v>3640</v>
       </c>
       <c r="B48" s="13">
         <v>505</v>
@@ -51602,7 +51599,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>3645</v>
+        <v>3653</v>
       </c>
       <c r="B49" s="13">
         <v>916</v>
@@ -51610,7 +51607,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>3646</v>
+        <v>3641</v>
       </c>
       <c r="B50" s="13">
         <v>575</v>
@@ -51618,7 +51615,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>3647</v>
+        <v>3642</v>
       </c>
       <c r="B51" s="13">
         <v>204</v>
@@ -51626,7 +51623,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>3648</v>
+        <v>3643</v>
       </c>
       <c r="B52" s="13">
         <v>159</v>
@@ -51634,7 +51631,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>3649</v>
+        <v>3644</v>
       </c>
       <c r="B53" s="13">
         <v>549</v>
@@ -51642,7 +51639,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>3650</v>
+        <v>3645</v>
       </c>
       <c r="B54" s="13">
         <v>565</v>
@@ -51650,7 +51647,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>3651</v>
+        <v>3646</v>
       </c>
       <c r="B55" s="13">
         <v>134</v>
@@ -51658,7 +51655,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>3652</v>
+        <v>3647</v>
       </c>
       <c r="B56" s="13">
         <v>491</v>
@@ -51666,7 +51663,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="B57" s="13">
         <v>160</v>
@@ -51674,7 +51671,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>3654</v>
+        <v>3648</v>
       </c>
       <c r="B58" s="13">
         <v>302</v>
@@ -51682,7 +51679,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>3655</v>
+        <v>3658</v>
       </c>
       <c r="B59" s="13">
         <v>600</v>
@@ -51690,7 +51687,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>3656</v>
+        <v>3649</v>
       </c>
       <c r="B60" s="13">
         <v>529</v>
@@ -51698,7 +51695,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>3651</v>
+        <v>3646</v>
       </c>
       <c r="B61" s="13">
         <v>904</v>
@@ -51706,7 +51703,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="B62" s="13">
         <v>477</v>
@@ -51714,7 +51711,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>3658</v>
+        <v>3651</v>
       </c>
       <c r="B63" s="13">
         <v>139</v>
@@ -51722,7 +51719,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>3659</v>
+        <v>3652</v>
       </c>
       <c r="B64" s="13">
         <v>252</v>

--- a/listagens.xlsx
+++ b/listagens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagomazza/Desktop/salesgraphic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482094A-5B9A-C24A-8068-F85DBB2B8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD01C75C-7167-3C46-B64B-8B558941FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10848,9 +10848,6 @@
     <t>DONECNC</t>
   </si>
   <si>
-    <t xml:space="preserve">Eroglu            </t>
-  </si>
-  <si>
     <t>FE Powertools - fresas</t>
   </si>
   <si>
@@ -10999,6 +10996,9 @@
   </si>
   <si>
     <t>HTK</t>
+  </si>
+  <si>
+    <t>Eroglu</t>
   </si>
 </sst>
 </file>
@@ -51204,8 +51204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0BA6ED-1A19-7C41-B7FA-E3504E8698D5}">
   <dimension ref="A1:B3578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51215,7 +51215,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>3597</v>
@@ -51303,7 +51303,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>3608</v>
+        <v>3658</v>
       </c>
       <c r="B12" s="13">
         <v>142</v>
@@ -51311,7 +51311,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B13" s="13">
         <v>100</v>
@@ -51319,7 +51319,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="B14" s="13">
         <v>507</v>
@@ -51327,7 +51327,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="B15" s="13">
         <v>240</v>
@@ -51335,7 +51335,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="B16" s="13">
         <v>181</v>
@@ -51343,7 +51343,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="B17" s="13">
         <v>569</v>
@@ -51351,7 +51351,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="B18" s="13">
         <v>546</v>
@@ -51359,7 +51359,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="B19" s="13">
         <v>125</v>
@@ -51367,7 +51367,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B20" s="13">
         <v>306</v>
@@ -51375,7 +51375,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="B21" s="13">
         <v>252</v>
@@ -51383,7 +51383,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="B22" s="13">
         <v>964</v>
@@ -51391,7 +51391,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="B23" s="13">
         <v>581</v>
@@ -51399,7 +51399,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B24" s="13">
         <v>455</v>
@@ -51407,7 +51407,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="B25" s="13">
         <v>904</v>
@@ -51415,7 +51415,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="B26" s="13">
         <v>204</v>
@@ -51423,7 +51423,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="B27" s="13">
         <v>978</v>
@@ -51431,7 +51431,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B28" s="13">
         <v>113</v>
@@ -51439,7 +51439,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B29" s="13">
         <v>937</v>
@@ -51447,7 +51447,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B30" s="13">
         <v>926</v>
@@ -51455,7 +51455,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="B31" s="13">
         <v>917</v>
@@ -51463,7 +51463,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="B32" s="13">
         <v>553</v>
@@ -51471,7 +51471,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="B33" s="13">
         <v>425</v>
@@ -51479,7 +51479,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B34" s="13">
         <v>417</v>
@@ -51487,7 +51487,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B35" s="13">
         <v>318</v>
@@ -51495,7 +51495,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B36" s="13">
         <v>949</v>
@@ -51503,7 +51503,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B37" s="13">
         <v>441</v>
@@ -51511,7 +51511,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="B38" s="13">
         <v>225</v>
@@ -51519,7 +51519,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B39" s="13">
         <v>122</v>
@@ -51527,7 +51527,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B40" s="13">
         <v>928</v>
@@ -51535,7 +51535,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="B41" s="13">
         <v>120</v>
@@ -51543,7 +51543,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="B42" s="13">
         <v>150</v>
@@ -51551,7 +51551,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B43" s="13">
         <v>133</v>
@@ -51559,7 +51559,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B44" s="13">
         <v>110</v>
@@ -51567,7 +51567,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B45" s="13">
         <v>117</v>
@@ -51575,7 +51575,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B46" s="13">
         <v>118</v>
@@ -51583,7 +51583,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="B47" s="13">
         <v>141</v>
@@ -51591,7 +51591,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="B48" s="13">
         <v>505</v>
@@ -51599,7 +51599,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B49" s="13">
         <v>916</v>
@@ -51607,7 +51607,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B50" s="13">
         <v>575</v>
@@ -51615,7 +51615,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="B51" s="13">
         <v>204</v>
@@ -51623,7 +51623,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B52" s="13">
         <v>159</v>
@@ -51631,7 +51631,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B53" s="13">
         <v>549</v>
@@ -51639,7 +51639,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B54" s="13">
         <v>565</v>
@@ -51647,7 +51647,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B55" s="13">
         <v>134</v>
@@ -51655,7 +51655,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B56" s="13">
         <v>491</v>
@@ -51663,7 +51663,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B57" s="13">
         <v>160</v>
@@ -51671,7 +51671,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B58" s="13">
         <v>302</v>
@@ -51679,7 +51679,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B59" s="13">
         <v>600</v>
@@ -51687,7 +51687,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B60" s="13">
         <v>529</v>
@@ -51695,7 +51695,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B61" s="13">
         <v>904</v>
@@ -51703,7 +51703,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B62" s="13">
         <v>477</v>
@@ -51711,7 +51711,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B63" s="13">
         <v>139</v>
@@ -51719,7 +51719,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="B64" s="13">
         <v>252</v>
